--- a/Tables/did_reg_e4.xlsx
+++ b/Tables/did_reg_e4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44EAF878-077F-4657-8612-0FA48C546B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D94B24A-BE5D-454A-B8F3-A3D734111361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{17F07208-105D-4672-98AD-8A1596F3C611}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{17F07208-105D-4672-98AD-8A1596F3C611}"/>
   </bookViews>
   <sheets>
     <sheet name="did_reg_e4" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,6 +219,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -256,16 +256,16 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-1.17***</v>
+            <v>-0.21***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-1.58***</v>
+            <v>-0.078</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-1.16***</v>
+            <v>-0.21***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-1.55***</v>
+            <v>-0.078</v>
           </cell>
         </row>
         <row r="6">
@@ -273,30 +273,30 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(0.040)</v>
+            <v>(0.063)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.053)</v>
+            <v>(0.064)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.040)</v>
+            <v>(0.062)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.053)</v>
+            <v>(0.063)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-0.64***</v>
+            <v>-0.10**</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.77***</v>
+            <v>-0.047</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-0.63***</v>
+            <v>-0.10**</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-0.75***</v>
+            <v>-0.045</v>
           </cell>
         </row>
         <row r="9">
@@ -304,30 +304,30 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(0.026)</v>
+            <v>(0.042)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.028)</v>
+            <v>(0.044)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.026)</v>
+            <v>(0.041)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.028)</v>
+            <v>(0.043)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-0.33***</v>
+            <v>-0.039*</v>
           </cell>
           <cell r="C11" t="str">
-            <v>-0.38***</v>
+            <v>-0.014</v>
           </cell>
           <cell r="D11" t="str">
-            <v>-0.32***</v>
+            <v>-0.038*</v>
           </cell>
           <cell r="E11" t="str">
-            <v>-0.37***</v>
+            <v>-0.013</v>
           </cell>
         </row>
         <row r="12">
@@ -335,30 +335,30 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(0.013)</v>
+            <v>(0.024)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(0.014)</v>
+            <v>(0.025)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(0.013)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>(0.014)</v>
+            <v>(0.024)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>0.32***</v>
+            <v>0.036</v>
           </cell>
           <cell r="C14" t="str">
-            <v>0.37***</v>
+            <v>0.016</v>
           </cell>
           <cell r="D14" t="str">
-            <v>0.31***</v>
+            <v>0.036</v>
           </cell>
           <cell r="E14" t="str">
-            <v>0.37***</v>
+            <v>0.016</v>
           </cell>
         </row>
         <row r="15">
@@ -366,30 +366,30 @@
             <v/>
           </cell>
           <cell r="B15" t="str">
-            <v>(0.013)</v>
+            <v>(0.024)</v>
           </cell>
           <cell r="C15" t="str">
-            <v>(0.014)</v>
+            <v>(0.025)</v>
           </cell>
           <cell r="D15" t="str">
-            <v>(0.013)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="E15" t="str">
-            <v>(0.014)</v>
+            <v>(0.024)</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>0.64***</v>
+            <v>0.065</v>
           </cell>
           <cell r="C17" t="str">
-            <v>0.75***</v>
+            <v>0.029</v>
           </cell>
           <cell r="D17" t="str">
-            <v>0.63***</v>
+            <v>0.068*</v>
           </cell>
           <cell r="E17" t="str">
-            <v>0.73***</v>
+            <v>0.033</v>
           </cell>
         </row>
         <row r="18">
@@ -397,30 +397,30 @@
             <v/>
           </cell>
           <cell r="B18" t="str">
-            <v>(0.025)</v>
+            <v>(0.041)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(0.028)</v>
+            <v>(0.043)</v>
           </cell>
           <cell r="D18" t="str">
-            <v>(0.025)</v>
+            <v>(0.040)</v>
           </cell>
           <cell r="E18" t="str">
-            <v>(0.028)</v>
+            <v>(0.041)</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>0.95***</v>
+            <v>0.11*</v>
           </cell>
           <cell r="C20" t="str">
-            <v>1.11***</v>
+            <v>0.061</v>
           </cell>
           <cell r="D20" t="str">
-            <v>0.94***</v>
+            <v>0.11**</v>
           </cell>
           <cell r="E20" t="str">
-            <v>1.10***</v>
+            <v>0.067</v>
           </cell>
         </row>
         <row r="21">
@@ -428,30 +428,30 @@
             <v/>
           </cell>
           <cell r="B21" t="str">
-            <v>(0.038)</v>
+            <v>(0.056)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(0.042)</v>
+            <v>(0.058)</v>
           </cell>
           <cell r="D21" t="str">
-            <v>(0.038)</v>
+            <v>(0.054)</v>
           </cell>
           <cell r="E21" t="str">
-            <v>(0.042)</v>
+            <v>(0.056)</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>1.27***</v>
+            <v>0.13*</v>
           </cell>
           <cell r="C23" t="str">
-            <v>1.49***</v>
+            <v>0.084</v>
           </cell>
           <cell r="D23" t="str">
-            <v>1.26***</v>
+            <v>0.14**</v>
           </cell>
           <cell r="E23" t="str">
-            <v>1.47***</v>
+            <v>0.089</v>
           </cell>
         </row>
         <row r="24">
@@ -459,30 +459,30 @@
             <v/>
           </cell>
           <cell r="B24" t="str">
-            <v>(0.051)</v>
+            <v>(0.069)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>(0.055)</v>
+            <v>(0.071)</v>
           </cell>
           <cell r="D24" t="str">
-            <v>(0.050)</v>
+            <v>(0.067)</v>
           </cell>
           <cell r="E24" t="str">
-            <v>(0.055)</v>
+            <v>(0.068)</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>1.55***</v>
+            <v>0.12</v>
           </cell>
           <cell r="C26" t="str">
-            <v>1.83***</v>
+            <v>0.088</v>
           </cell>
           <cell r="D26" t="str">
-            <v>1.54***</v>
+            <v>0.12</v>
           </cell>
           <cell r="E26" t="str">
-            <v>1.81***</v>
+            <v>0.087</v>
           </cell>
         </row>
         <row r="27">
@@ -490,16 +490,16 @@
             <v/>
           </cell>
           <cell r="B27" t="str">
-            <v>(0.095)</v>
+            <v>(0.081)</v>
           </cell>
           <cell r="C27" t="str">
-            <v>(0.096)</v>
+            <v>(0.081)</v>
           </cell>
           <cell r="D27" t="str">
-            <v>(0.093)</v>
+            <v>(0.077)</v>
           </cell>
           <cell r="E27" t="str">
-            <v>(0.094)</v>
+            <v>(0.077)</v>
           </cell>
         </row>
         <row r="29">
@@ -518,16 +518,16 @@
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>0.832</v>
+            <v>0.951</v>
           </cell>
           <cell r="C30" t="str">
-            <v>0.835</v>
+            <v>0.951</v>
           </cell>
           <cell r="D30" t="str">
-            <v>0.854</v>
+            <v>0.956</v>
           </cell>
           <cell r="E30" t="str">
-            <v>0.856</v>
+            <v>0.956</v>
           </cell>
         </row>
         <row r="31">
@@ -535,30 +535,30 @@
             <v>DepVarMean</v>
           </cell>
           <cell r="B31" t="str">
-            <v>4.15</v>
+            <v>4.05</v>
           </cell>
           <cell r="C31" t="str">
-            <v>4.15</v>
+            <v>4.05</v>
           </cell>
           <cell r="D31" t="str">
-            <v>3.70</v>
+            <v>3.49</v>
           </cell>
           <cell r="E31" t="str">
-            <v>3.70</v>
+            <v>3.49</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>1389</v>
+            <v/>
           </cell>
           <cell r="C32" t="str">
-            <v>1389</v>
+            <v/>
           </cell>
           <cell r="D32" t="str">
-            <v>2120</v>
+            <v/>
           </cell>
           <cell r="E32" t="str">
-            <v>2120</v>
+            <v/>
           </cell>
         </row>
       </sheetData>
@@ -603,423 +603,423 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-0.0029</v>
+            <v>-0.0088</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-0.059</v>
+            <v>-0.11**</v>
           </cell>
           <cell r="D5" t="str">
-            <v>0.00051</v>
+            <v>-0.12*</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-0.057***</v>
+            <v>-0.13**</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-0.0048</v>
+            <v>-0.13**</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.069***</v>
+            <v>-0.14**</v>
           </cell>
           <cell r="H5" t="str">
-            <v>0.0016</v>
+            <v>-0.077</v>
           </cell>
           <cell r="I5" t="str">
-            <v>0.0015</v>
+            <v>-0.089</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>(0.011)</v>
+            <v>(0.026)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(.)</v>
+            <v>(0.054)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.011)</v>
+            <v>(0.063)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.018)</v>
+            <v>(0.062)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.011)</v>
+            <v>(0.063)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.017)</v>
+            <v>(0.062)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(0.0077)</v>
+            <v>(0.061)</v>
           </cell>
           <cell r="I6" t="str">
-            <v>(0.015)</v>
+            <v>(0.059)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-0.0034</v>
+            <v>-0.0017</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.030</v>
+            <v>-0.049</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-0.0012</v>
+            <v>-0.061</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-0.033***</v>
+            <v>-0.065</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.0034</v>
+            <v>-0.068</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.039***</v>
+            <v>-0.071*</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-0.0034</v>
+            <v>-0.046</v>
           </cell>
           <cell r="I8" t="str">
-            <v>-0.014</v>
+            <v>-0.051</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>(0.0061)</v>
+            <v>(0.017)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.022)</v>
+            <v>(0.036)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.0065)</v>
+            <v>(0.043)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.011)</v>
+            <v>(0.042)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.0062)</v>
+            <v>(0.043)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.010)</v>
+            <v>(0.042)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(0.0054)</v>
+            <v>(0.043)</v>
           </cell>
           <cell r="I9" t="str">
-            <v>(0.0090)</v>
+            <v>(0.042)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-0.00010</v>
+            <v>-0.00040</v>
           </cell>
           <cell r="C11" t="str">
+            <v>-0.017</v>
+          </cell>
+          <cell r="D11" t="str">
             <v>-0.012</v>
           </cell>
-          <cell r="D11" t="str">
-            <v>0.00044</v>
-          </cell>
           <cell r="E11" t="str">
-            <v>-0.013**</v>
+            <v>-0.014</v>
           </cell>
           <cell r="F11" t="str">
-            <v>-0.00056</v>
+            <v>-0.016</v>
           </cell>
           <cell r="G11" t="str">
-            <v>-0.016***</v>
+            <v>-0.017</v>
           </cell>
           <cell r="H11" t="str">
-            <v>-0.00086</v>
+            <v>-0.0064</v>
           </cell>
           <cell r="I11" t="str">
-            <v>-0.0083*</v>
+            <v>-0.0086</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>(0.0031)</v>
+            <v>(0.0098)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(0.0088)</v>
+            <v>(0.020)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(0.0034)</v>
+            <v>(0.024)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>(0.0056)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="F12" t="str">
-            <v>(0.0033)</v>
+            <v>(0.024)</v>
           </cell>
           <cell r="G12" t="str">
-            <v>(0.0056)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="H12" t="str">
-            <v>(0.0030)</v>
+            <v>(0.024)</v>
           </cell>
           <cell r="I12" t="str">
-            <v>(0.0049)</v>
+            <v>(0.024)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>-0.0069**</v>
+            <v>-0.0056</v>
           </cell>
           <cell r="C14" t="str">
+            <v>0.024</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>0.019</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>0.026</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>0.023</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>0.030</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>0.017</v>
+          </cell>
+          <cell r="I14" t="str">
             <v>0.021</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>-0.0067**</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>0.027***</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>-0.0056*</v>
-          </cell>
-          <cell r="G14" t="str">
-            <v>0.030***</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v>-0.0041</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>0.012**</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>(0.0028)</v>
+            <v>(0.0092)</v>
           </cell>
           <cell r="C15" t="str">
-            <v>(.)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="D15" t="str">
-            <v>(0.0032)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="E15" t="str">
-            <v>(0.0065)</v>
+            <v>(0.021)</v>
           </cell>
           <cell r="F15" t="str">
-            <v>(0.0032)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="G15" t="str">
-            <v>(0.0064)</v>
+            <v>(0.022)</v>
           </cell>
           <cell r="H15" t="str">
-            <v>(0.0028)</v>
+            <v>(0.025)</v>
           </cell>
           <cell r="I15" t="str">
-            <v>(0.0058)</v>
+            <v>(0.024)</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>-0.014***</v>
+            <v>-0.0079</v>
           </cell>
           <cell r="C17" t="str">
-            <v>0.057</v>
+            <v>0.043</v>
           </cell>
           <cell r="D17" t="str">
-            <v>-0.013**</v>
+            <v>0.033</v>
           </cell>
           <cell r="E17" t="str">
-            <v>0.078***</v>
+            <v>0.047</v>
           </cell>
           <cell r="F17" t="str">
-            <v>-0.011**</v>
+            <v>0.038</v>
           </cell>
           <cell r="G17" t="str">
-            <v>0.083***</v>
+            <v>0.050</v>
           </cell>
           <cell r="H17" t="str">
-            <v>-0.0070</v>
+            <v>0.029</v>
           </cell>
           <cell r="I17" t="str">
-            <v>0.036***</v>
+            <v>0.039</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>(0.0049)</v>
+            <v>(0.016)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(.)</v>
+            <v>(0.032)</v>
           </cell>
           <cell r="D18" t="str">
-            <v>(0.0054)</v>
+            <v>(0.039)</v>
           </cell>
           <cell r="E18" t="str">
-            <v>(0.013)</v>
+            <v>(0.036)</v>
           </cell>
           <cell r="F18" t="str">
-            <v>(0.0052)</v>
+            <v>(0.040)</v>
           </cell>
           <cell r="G18" t="str">
-            <v>(0.013)</v>
+            <v>(0.037)</v>
           </cell>
           <cell r="H18" t="str">
-            <v>(0.0047)</v>
+            <v>(0.043)</v>
           </cell>
           <cell r="I18" t="str">
-            <v>(0.011)</v>
+            <v>(0.042)</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>-0.022***</v>
+            <v>-0.0077</v>
           </cell>
           <cell r="C20" t="str">
-            <v>0.086</v>
+            <v>0.072</v>
           </cell>
           <cell r="D20" t="str">
-            <v>-0.023***</v>
+            <v>0.052</v>
           </cell>
           <cell r="E20" t="str">
-            <v>0.12***</v>
+            <v>0.076</v>
           </cell>
           <cell r="F20" t="str">
-            <v>-0.020***</v>
+            <v>0.058</v>
           </cell>
           <cell r="G20" t="str">
-            <v>0.13***</v>
+            <v>0.081</v>
           </cell>
           <cell r="H20" t="str">
-            <v>-0.013**</v>
+            <v>0.050</v>
           </cell>
           <cell r="I20" t="str">
-            <v>0.061***</v>
+            <v>0.065</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>(0.0068)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(.)</v>
+            <v>(0.044)</v>
           </cell>
           <cell r="D21" t="str">
-            <v>(0.0073)</v>
+            <v>(0.054)</v>
           </cell>
           <cell r="E21" t="str">
-            <v>(0.019)</v>
+            <v>(0.050)</v>
           </cell>
           <cell r="F21" t="str">
-            <v>(0.0072)</v>
+            <v>(0.055)</v>
           </cell>
           <cell r="G21" t="str">
-            <v>(0.019)</v>
+            <v>(0.051)</v>
           </cell>
           <cell r="H21" t="str">
-            <v>(0.0063)</v>
+            <v>(0.058)</v>
           </cell>
           <cell r="I21" t="str">
-            <v>(0.018)</v>
+            <v>(0.057)</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>-0.030***</v>
+            <v>-0.010</v>
           </cell>
           <cell r="C23" t="str">
-            <v>0.12***</v>
+            <v>0.075</v>
           </cell>
           <cell r="D23" t="str">
-            <v>-0.034***</v>
+            <v>0.060</v>
           </cell>
           <cell r="E23" t="str">
-            <v>0.16***</v>
+            <v>0.087</v>
           </cell>
           <cell r="F23" t="str">
-            <v>-0.031***</v>
+            <v>0.068</v>
           </cell>
           <cell r="G23" t="str">
-            <v>0.16***</v>
+            <v>0.093</v>
           </cell>
           <cell r="H23" t="str">
-            <v>-0.018**</v>
+            <v>0.063</v>
           </cell>
           <cell r="I23" t="str">
-            <v>0.086***</v>
+            <v>0.081</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>(0.0083)</v>
+            <v>(0.031)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>(0.026)</v>
+            <v>(0.054)</v>
           </cell>
           <cell r="D24" t="str">
-            <v>(0.0089)</v>
+            <v>(0.068)</v>
           </cell>
           <cell r="E24" t="str">
-            <v>(0.026)</v>
+            <v>(0.061)</v>
           </cell>
           <cell r="F24" t="str">
-            <v>(0.0088)</v>
+            <v>(0.069)</v>
           </cell>
           <cell r="G24" t="str">
-            <v>(0.025)</v>
+            <v>(0.063)</v>
           </cell>
           <cell r="H24" t="str">
-            <v>(0.0076)</v>
+            <v>(0.072)</v>
           </cell>
           <cell r="I24" t="str">
-            <v>(0.024)</v>
+            <v>(0.071)</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>-0.044***</v>
+            <v>-0.034</v>
           </cell>
           <cell r="C26" t="str">
-            <v>0.20</v>
+            <v>0.048</v>
           </cell>
           <cell r="D26" t="str">
-            <v>-0.051***</v>
+            <v>0.025</v>
           </cell>
           <cell r="E26" t="str">
-            <v>0.20***</v>
+            <v>0.054</v>
           </cell>
           <cell r="F26" t="str">
-            <v>-0.046***</v>
+            <v>0.035</v>
           </cell>
           <cell r="G26" t="str">
-            <v>0.21***</v>
+            <v>0.060</v>
           </cell>
           <cell r="H26" t="str">
-            <v>-0.021**</v>
+            <v>0.050</v>
           </cell>
           <cell r="I26" t="str">
-            <v>0.15***</v>
+            <v>0.067</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>(0.010)</v>
+            <v>(0.039)</v>
           </cell>
           <cell r="C27" t="str">
-            <v>(.)</v>
+            <v>(0.063)</v>
           </cell>
           <cell r="D27" t="str">
-            <v>(0.011)</v>
+            <v>(0.079)</v>
           </cell>
           <cell r="E27" t="str">
-            <v>(0.038)</v>
+            <v>(0.071)</v>
           </cell>
           <cell r="F27" t="str">
-            <v>(0.011)</v>
+            <v>(0.081)</v>
           </cell>
           <cell r="G27" t="str">
-            <v>(0.038)</v>
+            <v>(0.073)</v>
           </cell>
           <cell r="H27" t="str">
-            <v>(0.0085)</v>
+            <v>(0.081)</v>
           </cell>
           <cell r="I27" t="str">
-            <v>(0.038)</v>
+            <v>(0.081)</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>65424</v>
+            <v>42839</v>
           </cell>
           <cell r="C29" t="str">
             <v>78338</v>
@@ -1045,80 +1045,80 @@
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>0.299</v>
+            <v>0.270</v>
           </cell>
           <cell r="C30" t="str">
-            <v>0.882</v>
+            <v>0.061</v>
           </cell>
           <cell r="D30" t="str">
-            <v>0.335</v>
+            <v>0.069</v>
           </cell>
           <cell r="E30" t="str">
-            <v>0.924</v>
+            <v>0.068</v>
           </cell>
           <cell r="F30" t="str">
-            <v>0.336</v>
+            <v>0.068</v>
           </cell>
           <cell r="G30" t="str">
-            <v>0.905</v>
+            <v>0.068</v>
           </cell>
           <cell r="H30" t="str">
-            <v>0.347</v>
+            <v>0.071</v>
           </cell>
           <cell r="I30" t="str">
-            <v>0.917</v>
+            <v>0.072</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>4.20</v>
+            <v>6.19</v>
           </cell>
           <cell r="C31" t="str">
-            <v>3.71</v>
+            <v>3.50</v>
           </cell>
           <cell r="D31" t="str">
-            <v>4.25</v>
+            <v>4.06</v>
           </cell>
           <cell r="E31" t="str">
-            <v>3.71</v>
+            <v>3.50</v>
           </cell>
           <cell r="F31" t="str">
-            <v>4.24</v>
+            <v>4.04</v>
           </cell>
           <cell r="G31" t="str">
-            <v>3.70</v>
+            <v>3.49</v>
           </cell>
           <cell r="H31" t="str">
-            <v>4.24</v>
+            <v>4.04</v>
           </cell>
           <cell r="I31" t="str">
-            <v>3.89</v>
+            <v>3.73</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>1392</v>
+            <v/>
           </cell>
           <cell r="C32" t="str">
-            <v>2195</v>
+            <v/>
           </cell>
           <cell r="D32" t="str">
-            <v>1392</v>
+            <v/>
           </cell>
           <cell r="E32" t="str">
-            <v>2195</v>
+            <v/>
           </cell>
           <cell r="F32" t="str">
-            <v>1389</v>
+            <v/>
           </cell>
           <cell r="G32" t="str">
-            <v>2192</v>
+            <v/>
           </cell>
           <cell r="H32" t="str">
-            <v>1389</v>
+            <v/>
           </cell>
           <cell r="I32" t="str">
-            <v>1647</v>
+            <v/>
           </cell>
         </row>
       </sheetData>
@@ -1438,21 +1438,21 @@
   <sheetData>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="str">
@@ -1492,16 +1492,16 @@
         <v>(8)</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1511,51 +1511,51 @@
       </c>
       <c r="B4" t="str">
         <f>[2]did_bc_e4!B5</f>
-        <v>-0.0029</v>
+        <v>-0.0088</v>
       </c>
       <c r="C4" t="str">
         <f>[2]did_bc_e4!C5</f>
-        <v>-0.059</v>
+        <v>-0.11**</v>
       </c>
       <c r="D4" t="str">
         <f>[2]did_bc_e4!D5</f>
-        <v>0.00051</v>
+        <v>-0.12*</v>
       </c>
       <c r="E4" t="str">
         <f>[2]did_bc_e4!E5</f>
-        <v>-0.057***</v>
+        <v>-0.13**</v>
       </c>
       <c r="F4" t="str">
         <f>[2]did_bc_e4!F5</f>
-        <v>-0.0048</v>
+        <v>-0.13**</v>
       </c>
       <c r="G4" t="str">
         <f>[2]did_bc_e4!G5</f>
-        <v>-0.069***</v>
+        <v>-0.14**</v>
       </c>
       <c r="H4" t="str">
         <f>[2]did_bc_e4!H5</f>
-        <v>0.0016</v>
+        <v>-0.077</v>
       </c>
       <c r="I4" t="str">
         <f>[2]did_bc_e4!I5</f>
-        <v>0.0015</v>
+        <v>-0.089</v>
       </c>
       <c r="K4" s="2" t="str">
         <f>[1]did_reg_e4!B5</f>
-        <v>-1.17***</v>
+        <v>-0.21***</v>
       </c>
       <c r="L4" s="2" t="str">
         <f>[1]did_reg_e4!C5</f>
-        <v>-1.58***</v>
+        <v>-0.078</v>
       </c>
       <c r="M4" s="2" t="str">
         <f>[1]did_reg_e4!D5</f>
-        <v>-1.16***</v>
+        <v>-0.21***</v>
       </c>
       <c r="N4" s="2" t="str">
         <f>[1]did_reg_e4!E5</f>
-        <v>-1.55***</v>
+        <v>-0.078</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1565,51 +1565,51 @@
       </c>
       <c r="B5" t="str">
         <f>[2]did_bc_e4!B6</f>
-        <v>(0.011)</v>
+        <v>(0.026)</v>
       </c>
       <c r="C5" t="str">
         <f>[2]did_bc_e4!C6</f>
-        <v>(.)</v>
+        <v>(0.054)</v>
       </c>
       <c r="D5" t="str">
         <f>[2]did_bc_e4!D6</f>
-        <v>(0.011)</v>
+        <v>(0.063)</v>
       </c>
       <c r="E5" t="str">
         <f>[2]did_bc_e4!E6</f>
-        <v>(0.018)</v>
+        <v>(0.062)</v>
       </c>
       <c r="F5" t="str">
         <f>[2]did_bc_e4!F6</f>
-        <v>(0.011)</v>
+        <v>(0.063)</v>
       </c>
       <c r="G5" t="str">
         <f>[2]did_bc_e4!G6</f>
-        <v>(0.017)</v>
+        <v>(0.062)</v>
       </c>
       <c r="H5" t="str">
         <f>[2]did_bc_e4!H6</f>
-        <v>(0.0077)</v>
+        <v>(0.061)</v>
       </c>
       <c r="I5" t="str">
         <f>[2]did_bc_e4!I6</f>
-        <v>(0.015)</v>
+        <v>(0.059)</v>
       </c>
       <c r="K5" s="2" t="str">
         <f>[1]did_reg_e4!B6</f>
-        <v>(0.040)</v>
+        <v>(0.063)</v>
       </c>
       <c r="L5" s="2" t="str">
         <f>[1]did_reg_e4!C6</f>
-        <v>(0.053)</v>
+        <v>(0.064)</v>
       </c>
       <c r="M5" s="2" t="str">
         <f>[1]did_reg_e4!D6</f>
-        <v>(0.040)</v>
+        <v>(0.062)</v>
       </c>
       <c r="N5" s="2" t="str">
         <f>[1]did_reg_e4!E6</f>
-        <v>(0.053)</v>
+        <v>(0.063)</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1618,51 +1618,51 @@
       </c>
       <c r="B6" t="str">
         <f>[2]did_bc_e4!B8</f>
-        <v>-0.0034</v>
+        <v>-0.0017</v>
       </c>
       <c r="C6" t="str">
         <f>[2]did_bc_e4!C8</f>
-        <v>-0.030</v>
+        <v>-0.049</v>
       </c>
       <c r="D6" t="str">
         <f>[2]did_bc_e4!D8</f>
-        <v>-0.0012</v>
+        <v>-0.061</v>
       </c>
       <c r="E6" t="str">
         <f>[2]did_bc_e4!E8</f>
-        <v>-0.033***</v>
+        <v>-0.065</v>
       </c>
       <c r="F6" t="str">
         <f>[2]did_bc_e4!F8</f>
-        <v>-0.0034</v>
+        <v>-0.068</v>
       </c>
       <c r="G6" t="str">
         <f>[2]did_bc_e4!G8</f>
-        <v>-0.039***</v>
+        <v>-0.071*</v>
       </c>
       <c r="H6" t="str">
         <f>[2]did_bc_e4!H8</f>
-        <v>-0.0034</v>
+        <v>-0.046</v>
       </c>
       <c r="I6" t="str">
         <f>[2]did_bc_e4!I8</f>
-        <v>-0.014</v>
+        <v>-0.051</v>
       </c>
       <c r="K6" s="2" t="str">
         <f>[1]did_reg_e4!B8</f>
-        <v>-0.64***</v>
+        <v>-0.10**</v>
       </c>
       <c r="L6" s="2" t="str">
         <f>[1]did_reg_e4!C8</f>
-        <v>-0.77***</v>
+        <v>-0.047</v>
       </c>
       <c r="M6" s="2" t="str">
         <f>[1]did_reg_e4!D8</f>
-        <v>-0.63***</v>
+        <v>-0.10**</v>
       </c>
       <c r="N6" s="2" t="str">
         <f>[1]did_reg_e4!E8</f>
-        <v>-0.75***</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1672,51 +1672,51 @@
       </c>
       <c r="B7" t="str">
         <f>[2]did_bc_e4!B9</f>
-        <v>(0.0061)</v>
+        <v>(0.017)</v>
       </c>
       <c r="C7" t="str">
         <f>[2]did_bc_e4!C9</f>
-        <v>(0.022)</v>
+        <v>(0.036)</v>
       </c>
       <c r="D7" t="str">
         <f>[2]did_bc_e4!D9</f>
-        <v>(0.0065)</v>
+        <v>(0.043)</v>
       </c>
       <c r="E7" t="str">
         <f>[2]did_bc_e4!E9</f>
-        <v>(0.011)</v>
+        <v>(0.042)</v>
       </c>
       <c r="F7" t="str">
         <f>[2]did_bc_e4!F9</f>
-        <v>(0.0062)</v>
+        <v>(0.043)</v>
       </c>
       <c r="G7" t="str">
         <f>[2]did_bc_e4!G9</f>
-        <v>(0.010)</v>
+        <v>(0.042)</v>
       </c>
       <c r="H7" t="str">
         <f>[2]did_bc_e4!H9</f>
-        <v>(0.0054)</v>
+        <v>(0.043)</v>
       </c>
       <c r="I7" t="str">
         <f>[2]did_bc_e4!I9</f>
-        <v>(0.0090)</v>
+        <v>(0.042)</v>
       </c>
       <c r="K7" s="2" t="str">
         <f>[1]did_reg_e4!B9</f>
-        <v>(0.026)</v>
+        <v>(0.042)</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>[1]did_reg_e4!C9</f>
-        <v>(0.028)</v>
+        <v>(0.044)</v>
       </c>
       <c r="M7" s="2" t="str">
         <f>[1]did_reg_e4!D9</f>
-        <v>(0.026)</v>
+        <v>(0.041)</v>
       </c>
       <c r="N7" s="2" t="str">
         <f>[1]did_reg_e4!E9</f>
-        <v>(0.028)</v>
+        <v>(0.043)</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="B8" t="str">
         <f>[2]did_bc_e4!B11</f>
-        <v>-0.00010</v>
+        <v>-0.00040</v>
       </c>
       <c r="C8" t="str">
         <f>[2]did_bc_e4!C11</f>
-        <v>-0.012</v>
+        <v>-0.017</v>
       </c>
       <c r="D8" t="str">
         <f>[2]did_bc_e4!D11</f>
-        <v>0.00044</v>
+        <v>-0.012</v>
       </c>
       <c r="E8" t="str">
         <f>[2]did_bc_e4!E11</f>
-        <v>-0.013**</v>
+        <v>-0.014</v>
       </c>
       <c r="F8" t="str">
         <f>[2]did_bc_e4!F11</f>
-        <v>-0.00056</v>
+        <v>-0.016</v>
       </c>
       <c r="G8" t="str">
         <f>[2]did_bc_e4!G11</f>
-        <v>-0.016***</v>
+        <v>-0.017</v>
       </c>
       <c r="H8" t="str">
         <f>[2]did_bc_e4!H11</f>
-        <v>-0.00086</v>
+        <v>-0.0064</v>
       </c>
       <c r="I8" t="str">
         <f>[2]did_bc_e4!I11</f>
-        <v>-0.0083*</v>
+        <v>-0.0086</v>
       </c>
       <c r="K8" s="2" t="str">
         <f>[1]did_reg_e4!B11</f>
-        <v>-0.33***</v>
+        <v>-0.039*</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>[1]did_reg_e4!C11</f>
-        <v>-0.38***</v>
+        <v>-0.014</v>
       </c>
       <c r="M8" s="2" t="str">
         <f>[1]did_reg_e4!D11</f>
-        <v>-0.32***</v>
+        <v>-0.038*</v>
       </c>
       <c r="N8" s="2" t="str">
         <f>[1]did_reg_e4!E11</f>
-        <v>-0.37***</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1779,51 +1779,51 @@
       </c>
       <c r="B9" t="str">
         <f>[2]did_bc_e4!B12</f>
-        <v>(0.0031)</v>
+        <v>(0.0098)</v>
       </c>
       <c r="C9" t="str">
         <f>[2]did_bc_e4!C12</f>
-        <v>(0.0088)</v>
+        <v>(0.020)</v>
       </c>
       <c r="D9" t="str">
         <f>[2]did_bc_e4!D12</f>
-        <v>(0.0034)</v>
+        <v>(0.024)</v>
       </c>
       <c r="E9" t="str">
         <f>[2]did_bc_e4!E12</f>
-        <v>(0.0056)</v>
+        <v>(0.023)</v>
       </c>
       <c r="F9" t="str">
         <f>[2]did_bc_e4!F12</f>
-        <v>(0.0033)</v>
+        <v>(0.024)</v>
       </c>
       <c r="G9" t="str">
         <f>[2]did_bc_e4!G12</f>
-        <v>(0.0056)</v>
+        <v>(0.023)</v>
       </c>
       <c r="H9" t="str">
         <f>[2]did_bc_e4!H12</f>
-        <v>(0.0030)</v>
+        <v>(0.024)</v>
       </c>
       <c r="I9" t="str">
         <f>[2]did_bc_e4!I12</f>
-        <v>(0.0049)</v>
+        <v>(0.024)</v>
       </c>
       <c r="K9" s="2" t="str">
         <f>[1]did_reg_e4!B12</f>
-        <v>(0.013)</v>
+        <v>(0.024)</v>
       </c>
       <c r="L9" s="2" t="str">
         <f>[1]did_reg_e4!C12</f>
-        <v>(0.014)</v>
+        <v>(0.025)</v>
       </c>
       <c r="M9" s="2" t="str">
         <f>[1]did_reg_e4!D12</f>
-        <v>(0.013)</v>
+        <v>(0.023)</v>
       </c>
       <c r="N9" s="2" t="str">
         <f>[1]did_reg_e4!E12</f>
-        <v>(0.014)</v>
+        <v>(0.024)</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1832,51 +1832,51 @@
       </c>
       <c r="B10" t="str">
         <f>[2]did_bc_e4!B14</f>
-        <v>-0.0069**</v>
+        <v>-0.0056</v>
       </c>
       <c r="C10" t="str">
         <f>[2]did_bc_e4!C14</f>
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="D10" t="str">
         <f>[2]did_bc_e4!D14</f>
-        <v>-0.0067**</v>
+        <v>0.019</v>
       </c>
       <c r="E10" t="str">
         <f>[2]did_bc_e4!E14</f>
-        <v>0.027***</v>
+        <v>0.026</v>
       </c>
       <c r="F10" t="str">
         <f>[2]did_bc_e4!F14</f>
-        <v>-0.0056*</v>
+        <v>0.023</v>
       </c>
       <c r="G10" t="str">
         <f>[2]did_bc_e4!G14</f>
-        <v>0.030***</v>
+        <v>0.030</v>
       </c>
       <c r="H10" t="str">
         <f>[2]did_bc_e4!H14</f>
-        <v>-0.0041</v>
+        <v>0.017</v>
       </c>
       <c r="I10" t="str">
         <f>[2]did_bc_e4!I14</f>
-        <v>0.012**</v>
+        <v>0.021</v>
       </c>
       <c r="K10" s="2" t="str">
         <f>[1]did_reg_e4!B14</f>
-        <v>0.32***</v>
+        <v>0.036</v>
       </c>
       <c r="L10" s="2" t="str">
         <f>[1]did_reg_e4!C14</f>
-        <v>0.37***</v>
+        <v>0.016</v>
       </c>
       <c r="M10" s="2" t="str">
         <f>[1]did_reg_e4!D14</f>
-        <v>0.31***</v>
+        <v>0.036</v>
       </c>
       <c r="N10" s="2" t="str">
         <f>[1]did_reg_e4!E14</f>
-        <v>0.37***</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1886,51 +1886,51 @@
       </c>
       <c r="B11" t="str">
         <f>[2]did_bc_e4!B15</f>
-        <v>(0.0028)</v>
+        <v>(0.0092)</v>
       </c>
       <c r="C11" t="str">
         <f>[2]did_bc_e4!C15</f>
-        <v>(.)</v>
+        <v>(0.019)</v>
       </c>
       <c r="D11" t="str">
         <f>[2]did_bc_e4!D15</f>
-        <v>(0.0032)</v>
+        <v>(0.023)</v>
       </c>
       <c r="E11" t="str">
         <f>[2]did_bc_e4!E15</f>
-        <v>(0.0065)</v>
+        <v>(0.021)</v>
       </c>
       <c r="F11" t="str">
         <f>[2]did_bc_e4!F15</f>
-        <v>(0.0032)</v>
+        <v>(0.023)</v>
       </c>
       <c r="G11" t="str">
         <f>[2]did_bc_e4!G15</f>
-        <v>(0.0064)</v>
+        <v>(0.022)</v>
       </c>
       <c r="H11" t="str">
         <f>[2]did_bc_e4!H15</f>
-        <v>(0.0028)</v>
+        <v>(0.025)</v>
       </c>
       <c r="I11" t="str">
         <f>[2]did_bc_e4!I15</f>
-        <v>(0.0058)</v>
+        <v>(0.024)</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>[1]did_reg_e4!B15</f>
-        <v>(0.013)</v>
+        <v>(0.024)</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>[1]did_reg_e4!C15</f>
-        <v>(0.014)</v>
+        <v>(0.025)</v>
       </c>
       <c r="M11" s="2" t="str">
         <f>[1]did_reg_e4!D15</f>
-        <v>(0.013)</v>
+        <v>(0.023)</v>
       </c>
       <c r="N11" s="2" t="str">
         <f>[1]did_reg_e4!E15</f>
-        <v>(0.014)</v>
+        <v>(0.024)</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -1939,51 +1939,51 @@
       </c>
       <c r="B12" t="str">
         <f>[2]did_bc_e4!B17</f>
-        <v>-0.014***</v>
+        <v>-0.0079</v>
       </c>
       <c r="C12" t="str">
         <f>[2]did_bc_e4!C17</f>
-        <v>0.057</v>
+        <v>0.043</v>
       </c>
       <c r="D12" t="str">
         <f>[2]did_bc_e4!D17</f>
-        <v>-0.013**</v>
+        <v>0.033</v>
       </c>
       <c r="E12" t="str">
         <f>[2]did_bc_e4!E17</f>
-        <v>0.078***</v>
+        <v>0.047</v>
       </c>
       <c r="F12" t="str">
         <f>[2]did_bc_e4!F17</f>
-        <v>-0.011**</v>
+        <v>0.038</v>
       </c>
       <c r="G12" t="str">
         <f>[2]did_bc_e4!G17</f>
-        <v>0.083***</v>
+        <v>0.050</v>
       </c>
       <c r="H12" t="str">
         <f>[2]did_bc_e4!H17</f>
-        <v>-0.0070</v>
+        <v>0.029</v>
       </c>
       <c r="I12" t="str">
         <f>[2]did_bc_e4!I17</f>
-        <v>0.036***</v>
+        <v>0.039</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>[1]did_reg_e4!B17</f>
-        <v>0.64***</v>
+        <v>0.065</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>[1]did_reg_e4!C17</f>
-        <v>0.75***</v>
+        <v>0.029</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>[1]did_reg_e4!D17</f>
-        <v>0.63***</v>
+        <v>0.068*</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>[1]did_reg_e4!E17</f>
-        <v>0.73***</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1993,51 +1993,51 @@
       </c>
       <c r="B13" t="str">
         <f>[2]did_bc_e4!B18</f>
-        <v>(0.0049)</v>
+        <v>(0.016)</v>
       </c>
       <c r="C13" t="str">
         <f>[2]did_bc_e4!C18</f>
-        <v>(.)</v>
+        <v>(0.032)</v>
       </c>
       <c r="D13" t="str">
         <f>[2]did_bc_e4!D18</f>
-        <v>(0.0054)</v>
+        <v>(0.039)</v>
       </c>
       <c r="E13" t="str">
         <f>[2]did_bc_e4!E18</f>
-        <v>(0.013)</v>
+        <v>(0.036)</v>
       </c>
       <c r="F13" t="str">
         <f>[2]did_bc_e4!F18</f>
-        <v>(0.0052)</v>
+        <v>(0.040)</v>
       </c>
       <c r="G13" t="str">
         <f>[2]did_bc_e4!G18</f>
-        <v>(0.013)</v>
+        <v>(0.037)</v>
       </c>
       <c r="H13" t="str">
         <f>[2]did_bc_e4!H18</f>
-        <v>(0.0047)</v>
+        <v>(0.043)</v>
       </c>
       <c r="I13" t="str">
         <f>[2]did_bc_e4!I18</f>
-        <v>(0.011)</v>
+        <v>(0.042)</v>
       </c>
       <c r="K13" s="2" t="str">
         <f>[1]did_reg_e4!B18</f>
-        <v>(0.025)</v>
+        <v>(0.041)</v>
       </c>
       <c r="L13" s="2" t="str">
         <f>[1]did_reg_e4!C18</f>
-        <v>(0.028)</v>
+        <v>(0.043)</v>
       </c>
       <c r="M13" s="2" t="str">
         <f>[1]did_reg_e4!D18</f>
-        <v>(0.025)</v>
+        <v>(0.040)</v>
       </c>
       <c r="N13" s="2" t="str">
         <f>[1]did_reg_e4!E18</f>
-        <v>(0.028)</v>
+        <v>(0.041)</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -2046,51 +2046,51 @@
       </c>
       <c r="B14" t="str">
         <f>[2]did_bc_e4!B20</f>
-        <v>-0.022***</v>
+        <v>-0.0077</v>
       </c>
       <c r="C14" t="str">
         <f>[2]did_bc_e4!C20</f>
-        <v>0.086</v>
+        <v>0.072</v>
       </c>
       <c r="D14" t="str">
         <f>[2]did_bc_e4!D20</f>
-        <v>-0.023***</v>
+        <v>0.052</v>
       </c>
       <c r="E14" t="str">
         <f>[2]did_bc_e4!E20</f>
-        <v>0.12***</v>
+        <v>0.076</v>
       </c>
       <c r="F14" t="str">
         <f>[2]did_bc_e4!F20</f>
-        <v>-0.020***</v>
+        <v>0.058</v>
       </c>
       <c r="G14" t="str">
         <f>[2]did_bc_e4!G20</f>
-        <v>0.13***</v>
+        <v>0.081</v>
       </c>
       <c r="H14" t="str">
         <f>[2]did_bc_e4!H20</f>
-        <v>-0.013**</v>
+        <v>0.050</v>
       </c>
       <c r="I14" t="str">
         <f>[2]did_bc_e4!I20</f>
-        <v>0.061***</v>
+        <v>0.065</v>
       </c>
       <c r="K14" s="2" t="str">
         <f>[1]did_reg_e4!B20</f>
-        <v>0.95***</v>
+        <v>0.11*</v>
       </c>
       <c r="L14" s="2" t="str">
         <f>[1]did_reg_e4!C20</f>
-        <v>1.11***</v>
+        <v>0.061</v>
       </c>
       <c r="M14" s="2" t="str">
         <f>[1]did_reg_e4!D20</f>
-        <v>0.94***</v>
+        <v>0.11**</v>
       </c>
       <c r="N14" s="2" t="str">
         <f>[1]did_reg_e4!E20</f>
-        <v>1.10***</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -2100,51 +2100,51 @@
       </c>
       <c r="B15" t="str">
         <f>[2]did_bc_e4!B21</f>
-        <v>(0.0068)</v>
+        <v>(0.023)</v>
       </c>
       <c r="C15" t="str">
         <f>[2]did_bc_e4!C21</f>
-        <v>(.)</v>
+        <v>(0.044)</v>
       </c>
       <c r="D15" t="str">
         <f>[2]did_bc_e4!D21</f>
-        <v>(0.0073)</v>
+        <v>(0.054)</v>
       </c>
       <c r="E15" t="str">
         <f>[2]did_bc_e4!E21</f>
-        <v>(0.019)</v>
+        <v>(0.050)</v>
       </c>
       <c r="F15" t="str">
         <f>[2]did_bc_e4!F21</f>
-        <v>(0.0072)</v>
+        <v>(0.055)</v>
       </c>
       <c r="G15" t="str">
         <f>[2]did_bc_e4!G21</f>
-        <v>(0.019)</v>
+        <v>(0.051)</v>
       </c>
       <c r="H15" t="str">
         <f>[2]did_bc_e4!H21</f>
-        <v>(0.0063)</v>
+        <v>(0.058)</v>
       </c>
       <c r="I15" t="str">
         <f>[2]did_bc_e4!I21</f>
-        <v>(0.018)</v>
+        <v>(0.057)</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>[1]did_reg_e4!B21</f>
-        <v>(0.038)</v>
+        <v>(0.056)</v>
       </c>
       <c r="L15" s="2" t="str">
         <f>[1]did_reg_e4!C21</f>
-        <v>(0.042)</v>
+        <v>(0.058)</v>
       </c>
       <c r="M15" s="2" t="str">
         <f>[1]did_reg_e4!D21</f>
-        <v>(0.038)</v>
+        <v>(0.054)</v>
       </c>
       <c r="N15" s="2" t="str">
         <f>[1]did_reg_e4!E21</f>
-        <v>(0.042)</v>
+        <v>(0.056)</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -2153,51 +2153,51 @@
       </c>
       <c r="B16" t="str">
         <f>[2]did_bc_e4!B23</f>
-        <v>-0.030***</v>
+        <v>-0.010</v>
       </c>
       <c r="C16" t="str">
         <f>[2]did_bc_e4!C23</f>
-        <v>0.12***</v>
+        <v>0.075</v>
       </c>
       <c r="D16" t="str">
         <f>[2]did_bc_e4!D23</f>
-        <v>-0.034***</v>
+        <v>0.060</v>
       </c>
       <c r="E16" t="str">
         <f>[2]did_bc_e4!E23</f>
-        <v>0.16***</v>
+        <v>0.087</v>
       </c>
       <c r="F16" t="str">
         <f>[2]did_bc_e4!F23</f>
-        <v>-0.031***</v>
+        <v>0.068</v>
       </c>
       <c r="G16" t="str">
         <f>[2]did_bc_e4!G23</f>
-        <v>0.16***</v>
+        <v>0.093</v>
       </c>
       <c r="H16" t="str">
         <f>[2]did_bc_e4!H23</f>
-        <v>-0.018**</v>
+        <v>0.063</v>
       </c>
       <c r="I16" t="str">
         <f>[2]did_bc_e4!I23</f>
-        <v>0.086***</v>
+        <v>0.081</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>[1]did_reg_e4!B23</f>
-        <v>1.27***</v>
+        <v>0.13*</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>[1]did_reg_e4!C23</f>
-        <v>1.49***</v>
+        <v>0.084</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>[1]did_reg_e4!D23</f>
-        <v>1.26***</v>
+        <v>0.14**</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>[1]did_reg_e4!E23</f>
-        <v>1.47***</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -2207,51 +2207,51 @@
       </c>
       <c r="B17" t="str">
         <f>[2]did_bc_e4!B24</f>
-        <v>(0.0083)</v>
+        <v>(0.031)</v>
       </c>
       <c r="C17" t="str">
         <f>[2]did_bc_e4!C24</f>
-        <v>(0.026)</v>
+        <v>(0.054)</v>
       </c>
       <c r="D17" t="str">
         <f>[2]did_bc_e4!D24</f>
-        <v>(0.0089)</v>
+        <v>(0.068)</v>
       </c>
       <c r="E17" t="str">
         <f>[2]did_bc_e4!E24</f>
-        <v>(0.026)</v>
+        <v>(0.061)</v>
       </c>
       <c r="F17" t="str">
         <f>[2]did_bc_e4!F24</f>
-        <v>(0.0088)</v>
+        <v>(0.069)</v>
       </c>
       <c r="G17" t="str">
         <f>[2]did_bc_e4!G24</f>
-        <v>(0.025)</v>
+        <v>(0.063)</v>
       </c>
       <c r="H17" t="str">
         <f>[2]did_bc_e4!H24</f>
-        <v>(0.0076)</v>
+        <v>(0.072)</v>
       </c>
       <c r="I17" t="str">
         <f>[2]did_bc_e4!I24</f>
-        <v>(0.024)</v>
+        <v>(0.071)</v>
       </c>
       <c r="K17" s="2" t="str">
         <f>[1]did_reg_e4!B24</f>
-        <v>(0.051)</v>
+        <v>(0.069)</v>
       </c>
       <c r="L17" s="2" t="str">
         <f>[1]did_reg_e4!C24</f>
-        <v>(0.055)</v>
+        <v>(0.071)</v>
       </c>
       <c r="M17" s="2" t="str">
         <f>[1]did_reg_e4!D24</f>
-        <v>(0.050)</v>
+        <v>(0.067)</v>
       </c>
       <c r="N17" s="2" t="str">
         <f>[1]did_reg_e4!E24</f>
-        <v>(0.055)</v>
+        <v>(0.068)</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -2260,51 +2260,51 @@
       </c>
       <c r="B18" t="str">
         <f>[2]did_bc_e4!B26</f>
-        <v>-0.044***</v>
+        <v>-0.034</v>
       </c>
       <c r="C18" t="str">
         <f>[2]did_bc_e4!C26</f>
-        <v>0.20</v>
+        <v>0.048</v>
       </c>
       <c r="D18" t="str">
         <f>[2]did_bc_e4!D26</f>
-        <v>-0.051***</v>
+        <v>0.025</v>
       </c>
       <c r="E18" t="str">
         <f>[2]did_bc_e4!E26</f>
-        <v>0.20***</v>
+        <v>0.054</v>
       </c>
       <c r="F18" t="str">
         <f>[2]did_bc_e4!F26</f>
-        <v>-0.046***</v>
+        <v>0.035</v>
       </c>
       <c r="G18" t="str">
         <f>[2]did_bc_e4!G26</f>
-        <v>0.21***</v>
+        <v>0.060</v>
       </c>
       <c r="H18" t="str">
         <f>[2]did_bc_e4!H26</f>
-        <v>-0.021**</v>
+        <v>0.050</v>
       </c>
       <c r="I18" t="str">
         <f>[2]did_bc_e4!I26</f>
-        <v>0.15***</v>
+        <v>0.067</v>
       </c>
       <c r="K18" s="2" t="str">
         <f>[1]did_reg_e4!B26</f>
-        <v>1.55***</v>
+        <v>0.12</v>
       </c>
       <c r="L18" s="2" t="str">
         <f>[1]did_reg_e4!C26</f>
-        <v>1.83***</v>
+        <v>0.088</v>
       </c>
       <c r="M18" s="2" t="str">
         <f>[1]did_reg_e4!D26</f>
-        <v>1.54***</v>
+        <v>0.12</v>
       </c>
       <c r="N18" s="2" t="str">
         <f>[1]did_reg_e4!E26</f>
-        <v>1.81***</v>
+        <v>0.087</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -2314,76 +2314,76 @@
       </c>
       <c r="B19" t="str">
         <f>[2]did_bc_e4!B27</f>
-        <v>(0.010)</v>
+        <v>(0.039)</v>
       </c>
       <c r="C19" t="str">
         <f>[2]did_bc_e4!C27</f>
-        <v>(.)</v>
+        <v>(0.063)</v>
       </c>
       <c r="D19" t="str">
         <f>[2]did_bc_e4!D27</f>
-        <v>(0.011)</v>
+        <v>(0.079)</v>
       </c>
       <c r="E19" t="str">
         <f>[2]did_bc_e4!E27</f>
-        <v>(0.038)</v>
+        <v>(0.071)</v>
       </c>
       <c r="F19" t="str">
         <f>[2]did_bc_e4!F27</f>
-        <v>(0.011)</v>
+        <v>(0.081)</v>
       </c>
       <c r="G19" t="str">
         <f>[2]did_bc_e4!G27</f>
-        <v>(0.038)</v>
+        <v>(0.073)</v>
       </c>
       <c r="H19" t="str">
         <f>[2]did_bc_e4!H27</f>
-        <v>(0.0085)</v>
+        <v>(0.081)</v>
       </c>
       <c r="I19" t="str">
         <f>[2]did_bc_e4!I27</f>
-        <v>(0.038)</v>
+        <v>(0.081)</v>
       </c>
       <c r="K19" s="2" t="str">
         <f>[1]did_reg_e4!B27</f>
-        <v>(0.095)</v>
+        <v>(0.081)</v>
       </c>
       <c r="L19" s="2" t="str">
         <f>[1]did_reg_e4!C27</f>
-        <v>(0.096)</v>
+        <v>(0.081)</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>[1]did_reg_e4!D27</f>
-        <v>(0.093)</v>
+        <v>(0.077)</v>
       </c>
       <c r="N19" s="2" t="str">
         <f>[1]did_reg_e4!E27</f>
-        <v>(0.094)</v>
+        <v>(0.077)</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="str">
         <f>[2]did_bc_e4!B29</f>
-        <v>65424</v>
+        <v>42839</v>
       </c>
       <c r="C21" t="str">
         <f>[2]did_bc_e4!C29</f>
@@ -2413,7 +2413,7 @@
         <f>[2]did_bc_e4!I29</f>
         <v>72705</v>
       </c>
-      <c r="K21" s="9" t="str">
+      <c r="K21" s="8" t="str">
         <f>[1]did_reg_e4!B29</f>
         <v>66636</v>
       </c>
@@ -2436,51 +2436,51 @@
       </c>
       <c r="B22" t="str">
         <f>[2]did_bc_e4!B32</f>
-        <v>1392</v>
+        <v/>
       </c>
       <c r="C22" t="str">
         <f>[2]did_bc_e4!C32</f>
-        <v>2195</v>
+        <v/>
       </c>
       <c r="D22" t="str">
         <f>[2]did_bc_e4!D32</f>
-        <v>1392</v>
+        <v/>
       </c>
       <c r="E22" t="str">
         <f>[2]did_bc_e4!E32</f>
-        <v>2195</v>
+        <v/>
       </c>
       <c r="F22" t="str">
         <f>[2]did_bc_e4!F32</f>
-        <v>1389</v>
+        <v/>
       </c>
       <c r="G22" t="str">
         <f>[2]did_bc_e4!G32</f>
-        <v>2192</v>
+        <v/>
       </c>
       <c r="H22" t="str">
         <f>[2]did_bc_e4!H32</f>
-        <v>1389</v>
+        <v/>
       </c>
       <c r="I22" t="str">
         <f>[2]did_bc_e4!I32</f>
-        <v>1647</v>
+        <v/>
       </c>
       <c r="K22" s="2" t="str">
         <f>[1]did_reg_e4!B32</f>
-        <v>1389</v>
+        <v/>
       </c>
       <c r="L22" s="2" t="str">
         <f>[1]did_reg_e4!C32</f>
-        <v>1389</v>
+        <v/>
       </c>
       <c r="M22" s="2" t="str">
         <f>[1]did_reg_e4!D32</f>
-        <v>2120</v>
+        <v/>
       </c>
       <c r="N22" s="2" t="str">
         <f>[1]did_reg_e4!E32</f>
-        <v>2120</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -2489,154 +2489,154 @@
       </c>
       <c r="B23" t="str">
         <f>[2]did_bc_e4!B30</f>
-        <v>0.299</v>
+        <v>0.270</v>
       </c>
       <c r="C23" t="str">
         <f>[2]did_bc_e4!C30</f>
-        <v>0.882</v>
+        <v>0.061</v>
       </c>
       <c r="D23" t="str">
         <f>[2]did_bc_e4!D30</f>
-        <v>0.335</v>
+        <v>0.069</v>
       </c>
       <c r="E23" t="str">
         <f>[2]did_bc_e4!E30</f>
-        <v>0.924</v>
+        <v>0.068</v>
       </c>
       <c r="F23" t="str">
         <f>[2]did_bc_e4!F30</f>
-        <v>0.336</v>
+        <v>0.068</v>
       </c>
       <c r="G23" t="str">
         <f>[2]did_bc_e4!G30</f>
-        <v>0.905</v>
+        <v>0.068</v>
       </c>
       <c r="H23" t="str">
         <f>[2]did_bc_e4!H30</f>
-        <v>0.347</v>
+        <v>0.071</v>
       </c>
       <c r="I23" t="str">
         <f>[2]did_bc_e4!I30</f>
-        <v>0.917</v>
+        <v>0.072</v>
       </c>
       <c r="K23" s="2" t="str">
         <f>[1]did_reg_e4!B30</f>
-        <v>0.832</v>
+        <v>0.951</v>
       </c>
       <c r="L23" s="2" t="str">
         <f>[1]did_reg_e4!C30</f>
-        <v>0.835</v>
+        <v>0.951</v>
       </c>
       <c r="M23" s="2" t="str">
         <f>[1]did_reg_e4!D30</f>
-        <v>0.854</v>
+        <v>0.956</v>
       </c>
       <c r="N23" s="2" t="str">
         <f>[1]did_reg_e4!E30</f>
-        <v>0.856</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="str">
+      <c r="A24" s="11" t="str">
         <f>[1]did_reg_e4!A31</f>
         <v>DepVarMean</v>
       </c>
-      <c r="B24" s="12" t="str">
+      <c r="B24" s="11" t="str">
         <f>[2]did_bc_e4!B31</f>
-        <v>4.20</v>
-      </c>
-      <c r="C24" s="12" t="str">
+        <v>6.19</v>
+      </c>
+      <c r="C24" s="11" t="str">
         <f>[2]did_bc_e4!C31</f>
-        <v>3.71</v>
-      </c>
-      <c r="D24" s="12" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="D24" s="11" t="str">
         <f>[2]did_bc_e4!D31</f>
-        <v>4.25</v>
-      </c>
-      <c r="E24" s="12" t="str">
+        <v>4.06</v>
+      </c>
+      <c r="E24" s="11" t="str">
         <f>[2]did_bc_e4!E31</f>
-        <v>3.71</v>
-      </c>
-      <c r="F24" s="12" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="F24" s="11" t="str">
         <f>[2]did_bc_e4!F31</f>
-        <v>4.24</v>
-      </c>
-      <c r="G24" s="12" t="str">
+        <v>4.04</v>
+      </c>
+      <c r="G24" s="11" t="str">
         <f>[2]did_bc_e4!G31</f>
-        <v>3.70</v>
-      </c>
-      <c r="H24" s="12" t="str">
+        <v>3.49</v>
+      </c>
+      <c r="H24" s="11" t="str">
         <f>[2]did_bc_e4!H31</f>
-        <v>4.24</v>
-      </c>
-      <c r="I24" s="12" t="str">
+        <v>4.04</v>
+      </c>
+      <c r="I24" s="11" t="str">
         <f>[2]did_bc_e4!I31</f>
-        <v>3.89</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13" t="str">
+        <v>3.73</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12" t="str">
         <f>[1]did_reg_e4!B31</f>
-        <v>4.15</v>
-      </c>
-      <c r="L24" s="13" t="str">
+        <v>4.05</v>
+      </c>
+      <c r="L24" s="12" t="str">
         <f>[1]did_reg_e4!C31</f>
-        <v>4.15</v>
-      </c>
-      <c r="M24" s="13" t="str">
+        <v>4.05</v>
+      </c>
+      <c r="M24" s="12" t="str">
         <f>[1]did_reg_e4!D31</f>
-        <v>3.70</v>
-      </c>
-      <c r="N24" s="13" t="str">
+        <v>3.49</v>
+      </c>
+      <c r="N24" s="12" t="str">
         <f>[1]did_reg_e4!E31</f>
-        <v>3.70</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="B25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="9" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -2656,28 +2656,28 @@
       <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="9" t="s">
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -2697,58 +2697,58 @@
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
+      <c r="F28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="H29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="4"/>
@@ -2772,8 +2772,8 @@
       <c r="N30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
